--- a/data/22-08-2025-categories-export.xlsx
+++ b/data/22-08-2025-categories-export.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
   <si>
     <t>Id</t>
   </si>
@@ -164,6 +164,15 @@
   </si>
   <si>
     <t>Default entry for Ofc Joint Types category</t>
+  </si>
+  <si>
+    <t>d3c4503c-3afb-449b-8215-abf26a3cbcbf</t>
+  </si>
+  <si>
+    <t>OFC_OWNER</t>
+  </si>
+  <si>
+    <t>Default entry for Ofc Owner category</t>
   </si>
 </sst>
 </file>
@@ -262,9 +271,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,7 +613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1008,35 +1017,67 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="C13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="11">
+      <c r="G13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="8">
         <v>45890</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="8">
         <v>45890</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="11">
+        <v>45891.710289016206</v>
+      </c>
+      <c r="J14" s="11">
+        <v>45891.710289016206</v>
       </c>
     </row>
   </sheetData>
